--- a/excel_files/balance3.xlsx
+++ b/excel_files/balance3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelmuther/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A044F397-5F2F-F041-9FD2-AEC571E9BE33}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A15F77-80AC-8544-9A23-5B17946103F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="900" windowWidth="27640" windowHeight="15800" xr2:uid="{F9D0B887-BBDE-3543-8C7D-69882DB4E8A8}"/>
+    <workbookView xWindow="5940" yWindow="3700" windowWidth="27640" windowHeight="15800" xr2:uid="{F9D0B887-BBDE-3543-8C7D-69882DB4E8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
